--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.169</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.33</v>
+        <v>17.265</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.298</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.045</v>
+        <v>11.544</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.338</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.672</v>
+        <v>8.547000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.98161699786137</v>
+        <v>9.102563871606051</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.00006731786983</v>
+        <v>17.97028088684461</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.86104875877214</v>
+        <v>20.91108456650035</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.37117734516702</v>
+        <v>-6.15532186638309</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.04263569685203</v>
+        <v>22.99793012114803</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.85691078930151</v>
+        <v>24.51434401372286</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>14.10255552773204</v>
+        <v>-1.276655899740106</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.97821330834002</v>
+        <v>37.84837529825062</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.96823109430717</v>
+        <v>37.79596423762261</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.08520400174877</v>
+        <v>39.43385598249783</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33.39183986973383</v>
+        <v>42.50946676997783</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.90294291624363</v>
+        <v>45.00523864008987</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.94255350545299</v>
+        <v>15.48139971027983</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.01435249278834</v>
+        <v>39.63835577107217</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.47248118924416</v>
+        <v>45.71926019362608</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.52511893923151</v>
+        <v>19.88774377465678</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.70904867181116</v>
+        <v>39.32762554358858</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.62176638291203</v>
+        <v>43.65910401852749</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.56452624943829</v>
+        <v>7.011116252315318</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.38488218510693</v>
+        <v>35.60282457023091</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.25940991204173</v>
+        <v>42.89121932596264</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.36938192735188</v>
+        <v>9.677924314396009</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.41018375776603</v>
+        <v>52.7288757255571</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.45606571338861</v>
+        <v>61.31250499828461</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.7146828347858</v>
+        <v>58.88950223552213</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.12950960315044</v>
+        <v>68.13379510337053</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>37.66874461596329</v>
+        <v>73.44745765939685</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.50812392643473</v>
+        <v>24.92564860499807</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.8045790267167</v>
+        <v>67.24249949564897</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>37.25768008954916</v>
+        <v>73.2679934051237</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.13793504997881</v>
+        <v>26.92159636767146</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.44751966740654</v>
+        <v>48.52073236101639</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.42613429352355</v>
+        <v>54.31332807948554</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19.54073869696406</v>
+        <v>11.87697607942378</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.50899261191417</v>
+        <v>47.38675652913544</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.4270846265993</v>
+        <v>54.17457487613764</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>23.38592413362653</v>
+        <v>16.24232162521493</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.54786287717369</v>
+        <v>68.35530893451902</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>40.66659234054257</v>
+        <v>79.04054171622484</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.11180808434026</v>
+        <v>85.14471991872203</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43.53521905062382</v>
+        <v>93.02870636620683</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>45.10257540557954</v>
+        <v>99.98759959606819</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.75288145488382</v>
+        <v>36.74336751131609</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.09731168777806</v>
+        <v>85.7301755718034</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.59990002560365</v>
+        <v>93.59972313687662</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.6072039976944</v>
+        <v>13.16323414499901</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.80414351136967</v>
+        <v>38.27710402440296</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.64068924735068</v>
+        <v>42.84575762113694</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.01782823921369</v>
+        <v>3.895805568199037</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.87189230729935</v>
+        <v>46.42636378507454</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.63870677532741</v>
+        <v>50.28058743591534</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.79511029568648</v>
+        <v>7.826199598661916</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.85655209174878</v>
+        <v>69.3577150767503</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.82179847434582</v>
+        <v>70.46754878218907</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.91247455396931</v>
+        <v>63.75911097197563</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.24691571012666</v>
+        <v>71.59755253541773</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.72739518276114</v>
+        <v>73.2127515891675</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.59739392180116</v>
+        <v>21.6895150879311</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.83912261425993</v>
+        <v>65.39362354811787</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.26491994752035</v>
+        <v>72.8293923553001</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.96961146038978</v>
+        <v>11.80478887057079</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.32590880258739</v>
+        <v>43.10130815958514</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.21048207011656</v>
+        <v>47.58822876932022</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13.03133498001061</v>
+        <v>3.352704014434508</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.02793789820245</v>
+        <v>41.96251942396079</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.85205085112256</v>
+        <v>49.83424675480684</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.88184636663176</v>
+        <v>5.01721234844986</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.10258699682618</v>
+        <v>65.62376069315418</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.12009007613528</v>
+        <v>73.73103763368267</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.35815464121719</v>
+        <v>65.24071156993172</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36.79799642075908</v>
+        <v>77.97611584949756</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>38.3043576445113</v>
+        <v>80.70075922348501</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.98604624267967</v>
+        <v>19.0538285678481</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.44507722854247</v>
+        <v>76.28232135693516</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.86540049241139</v>
+        <v>81.41689318838341</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.84215066422534</v>
+        <v>15.96395272706998</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.32524954157032</v>
+        <v>50.12592016180567</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.27548009523194</v>
+        <v>56.31158825622914</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>20.27448414074756</v>
+        <v>5.013977902730133</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.42107776103775</v>
+        <v>51.18847515366078</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>37.28775845397401</v>
+        <v>58.42150046453683</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.17108450899473</v>
+        <v>7.959136175670508</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.51361023152959</v>
+        <v>78.39238999815232</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41.60385681319428</v>
+        <v>88.61053487304692</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>40.03081648253981</v>
+        <v>88.08152642896168</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>44.48030571658985</v>
+        <v>100.012270539292</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>46.01531215343923</v>
+        <v>104.4841637170254</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.50579295933353</v>
+        <v>26.27023642148497</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>42.01381014530686</v>
+        <v>92.48183910336083</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>45.48234786217441</v>
+        <v>99.76652681149709</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.53342989291033</v>
+        <v>22.16370339871507</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.72746643992783</v>
+        <v>40.44122856859245</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.55025235547425</v>
+        <v>41.90089476104875</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>10.9185741241946</v>
+        <v>5.627035942349707</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>23.76988392831539</v>
+        <v>46.71932194783066</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.52404162224331</v>
+        <v>47.12086799282768</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.69758309408623</v>
+        <v>12.11131864094769</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>27.75700398335663</v>
+        <v>69.93818161775552</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.70954647162401</v>
+        <v>66.92564776043049</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.83321906744863</v>
+        <v>65.15805275814488</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.16502996579667</v>
+        <v>72.06676401030491</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.64135923272484</v>
+        <v>71.44747076857466</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.52553802075</v>
+        <v>30.78065708193556</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.76039388740163</v>
+        <v>64.84288799047415</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>35.17735367812423</v>
+        <v>68.50033481659226</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.98766376416427</v>
+        <v>24.13888119792854</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.34179748836547</v>
+        <v>50.14327571852304</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.21247771552699</v>
+        <v>51.52919545538619</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>13.0252734924432</v>
+        <v>7.994367475045848</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.02020148809082</v>
+        <v>47.15525809763083</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.83142319363245</v>
+        <v>51.73402525873986</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.87827893127186</v>
+        <v>12.47211121987648</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.09779443719533</v>
+        <v>71.37210705423591</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.1024464680827</v>
+        <v>75.25551211557517</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.37367383937261</v>
+        <v>71.00827049880404</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.81074668168921</v>
+        <v>81.78653458554807</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>38.31327188827981</v>
+        <v>82.7303329997839</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.00807672727525</v>
+        <v>31.30726051223532</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.46071567372329</v>
+        <v>79.6925499966995</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.87222531919841</v>
+        <v>81.57161222308643</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.84870642211897</v>
+        <v>26.53740923082198</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.32992586932831</v>
+        <v>55.67140389526379</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.26664896138622</v>
+        <v>58.27299176273856</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20.25575667550699</v>
+        <v>8.374656152925255</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.40123030732919</v>
+        <v>55.77452929960081</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.2550854693375</v>
+        <v>59.08616841608831</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.15500109611437</v>
+        <v>14.11649197093415</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>37.49655320517839</v>
+        <v>83.16197937997809</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.5743368104194</v>
+        <v>88.69637777869228</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.03335613669736</v>
+        <v>93.23456707869421</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>44.48082334684743</v>
+        <v>102.9150090792144</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>46.01180452323211</v>
+        <v>105.2610682713472</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.51481419140408</v>
+        <v>37.96236546413938</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>42.01707219173292</v>
+        <v>95.30434583081355</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>45.4767395794179</v>
+        <v>98.84721098630793</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>11.72287570151326</v>
+        <v>15.95151480506736</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.69011309278547</v>
+        <v>22.99197313069526</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.53287876390134</v>
+        <v>25.27729827949524</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9.091390524468714</v>
+        <v>0.8481414691718356</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.71075408352377</v>
+        <v>28.73698993829025</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.50649271791778</v>
+        <v>30.40352500764614</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>12.79159153032956</v>
+        <v>6.334606879733499</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.61310216641723</v>
+        <v>41.27412382657072</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.58431930045052</v>
+        <v>41.19639217350651</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>27.71322320849843</v>
+        <v>42.96291006425339</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.00482331613499</v>
+        <v>44.35035920573561</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.51414369224007</v>
+        <v>48.33171868950426</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>19.61826061949911</v>
+        <v>29.28091232968494</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.64915396987235</v>
+        <v>51.49999731024381</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.08995917308373</v>
+        <v>56.31093050221905</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.24614257501705</v>
+        <v>22.713753085693</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.37814559354421</v>
+        <v>39.94863579962855</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.2726717636225</v>
+        <v>43.56180192578041</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.26399481654209</v>
+        <v>10.3069102789831</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.03170756356011</v>
+        <v>37.21479078340424</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.88784058594688</v>
+        <v>44.69996499847305</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>15.03817791036204</v>
+        <v>12.75973966028515</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.02410621411826</v>
+        <v>51.12800283817866</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.05120267150954</v>
+        <v>59.59207142598596</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>30.31931434024244</v>
+        <v>55.78455214666543</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>34.71904429982274</v>
+        <v>63.43341182094296</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.25633699853684</v>
+        <v>70.24789931615489</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.16013125014835</v>
+        <v>31.26981098461594</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>32.41482214327931</v>
+        <v>71.2619242215661</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.8508023905852</v>
+        <v>75.56617808279115</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.94950857589601</v>
+        <v>30.61880689139305</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.20848640253822</v>
+        <v>49.80173727125926</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.16830785041216</v>
+        <v>54.71417875517729</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.33214186053675</v>
+        <v>15.30999525386922</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.24894853245913</v>
+        <v>49.01552268375825</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>35.14822463441368</v>
+        <v>55.75915192049889</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.14781789316333</v>
+        <v>19.77069903870357</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>35.25636422477976</v>
+        <v>67.19184343516498</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>39.355749165553</v>
+        <v>77.64712836412194</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>37.81090707644641</v>
+        <v>81.61376721162689</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.21978136660109</v>
+        <v>88.1192628930428</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>43.78486393803568</v>
+        <v>96.37229441608223</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.49823136840145</v>
+        <v>43.4450967317082</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>39.80199473304766</v>
+        <v>89.64486368670423</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>43.2871439634997</v>
+        <v>95.791941990083</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.21086879025529</v>
+        <v>25.51404417726583</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.24783940604093</v>
+        <v>41.90332710977368</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.09281014079048</v>
+        <v>41.26270766931238</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>12.63462868370233</v>
+        <v>6.518894319335615</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.32808685008114</v>
+        <v>47.11072059798737</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.12496099045203</v>
+        <v>46.9840718179792</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.36978055637825</v>
+        <v>14.82388997926653</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.26416902093615</v>
+        <v>68.21037054992301</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.23777384815806</v>
+        <v>64.26733967410443</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.35310623012933</v>
+        <v>61.99256776680936</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.65965832831708</v>
+        <v>66.80484006566358</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.16378072572694</v>
+        <v>66.09771252279283</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.19561306265766</v>
+        <v>35.71133679315754</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.26438443620648</v>
+        <v>62.81432707139267</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.70774894131286</v>
+        <v>65.00214846119074</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.84730691180959</v>
+        <v>33.13248600015062</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.04849841266661</v>
+        <v>57.89862574111164</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.94369708873309</v>
+        <v>57.69137716464625</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.92213453637843</v>
+        <v>15.77583719195171</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.76356253660294</v>
+        <v>53.88159657159527</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.61932732860905</v>
+        <v>58.68538068968279</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>18.73215137769106</v>
+        <v>21.73503712123146</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.7903403602462</v>
+        <v>76.55715244383028</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.81829984840756</v>
+        <v>80.37880225636268</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.07770497610666</v>
+        <v>77.84053355052158</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>38.492346520921</v>
+        <v>87.7476059857794</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>40.02378635059212</v>
+        <v>89.45848241342811</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.85795392795486</v>
+        <v>44.42214004372683</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.1499889286017</v>
+        <v>88.09273095639573</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.35398746773203</v>
+        <v>33.67630555589075</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.67892112219695</v>
+        <v>60.368912606883</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>40.64063134205416</v>
+        <v>62.15367965944218</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>21.79200028598795</v>
+        <v>13.8486972947204</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.77899508262598</v>
+        <v>58.50042237851831</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>38.67900324599191</v>
+        <v>62.96372281343851</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.64080327317184</v>
+        <v>20.73863488912561</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.81821964664966</v>
+        <v>84.44919503368452</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42.91983363466557</v>
+        <v>90.89484664248262</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.36451200531374</v>
+        <v>95.70914071492977</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>45.78784309148406</v>
+        <v>104.7753873788898</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.34788787030854</v>
+        <v>107.9035276770431</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.9930926796726</v>
+        <v>47.94131176581909</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.33308591042825</v>
+        <v>98.4627424234189</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.82071122527781</v>
+        <v>101.8799925916025</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.14717497593183</v>
+        <v>14.79396301577104</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.11888328846225</v>
+        <v>36.70016325370311</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>27.8874526640726</v>
+        <v>39.04734766566834</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9.561979649925284</v>
+        <v>0.2762606781253822</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.18867092768768</v>
+        <v>44.47155009106838</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.89098209985917</v>
+        <v>48.18368858781822</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>13.27088812512417</v>
+        <v>6.477545948070528</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.09456925504364</v>
+        <v>69.90348760837794</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.99030992206183</v>
+        <v>67.29739016069878</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.08464623566289</v>
+        <v>56.31263150696454</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.34423910620786</v>
+        <v>62.41381281306745</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.79829243196552</v>
+        <v>62.87959135101057</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.94273699417816</v>
+        <v>18.2594857036954</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.96851958545509</v>
+        <v>54.17526015550821</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>33.33169095778659</v>
+        <v>57.47678321391722</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>14.87789503611545</v>
+        <v>24.22604355804226</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.0129831347877</v>
+        <v>54.90726372524891</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>30.82826749906178</v>
+        <v>56.50092299178364</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>11.95074559892535</v>
+        <v>7.707805199223102</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.72460848620915</v>
+        <v>50.58077028046141</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.48300516676284</v>
+        <v>57.71635787328113</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>15.73526586763096</v>
+        <v>12.32425503996741</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.72242012115832</v>
+        <v>78.11208703518436</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.66900256106509</v>
+        <v>81.87953587453616</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.91165548824237</v>
+        <v>73.2493287382898</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>35.27691198243552</v>
+        <v>84.02209415838895</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.75695316274897</v>
+        <v>86.75698294127024</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.71081810246725</v>
+        <v>30.41318804733582</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.95661218720061</v>
+        <v>84.50733284608636</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.3144830856815</v>
+        <v>85.49645491824252</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.69972120459469</v>
+        <v>25.28945728247821</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.95886210077305</v>
+        <v>57.62168008547461</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>37.84011954861787</v>
+        <v>60.96120001376296</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>19.13505352889142</v>
+        <v>5.300654232185664</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>32.05616400685025</v>
+        <v>54.01510838124231</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.85785281840479</v>
+        <v>60.22639392771278</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.9650450114791</v>
+        <v>10.65469793844453</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.07136479717347</v>
+        <v>84.54269688503335</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>40.0908511684894</v>
+        <v>90.61452218268558</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.5202306186137</v>
+        <v>90.84529940681999</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.89484194558014</v>
+        <v>101.0947359593909</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>44.40334185881069</v>
+        <v>103.6091863665076</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.16650131053302</v>
+        <v>32.6065539039525</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.46118568892403</v>
+        <v>94.37792274190254</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>43.86727421220714</v>
+        <v>97.0607374476552</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>8.932320202701147</v>
+        <v>2.81569437533004</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>20.85097195236221</v>
+        <v>10.60173888579992</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.63147255878182</v>
+        <v>12.10765932426524</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>6.292792029790103</v>
+        <v>-8.173034810251565</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.86035451912957</v>
+        <v>18.84756936671239</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.57719633585476</v>
+        <v>18.96875764576374</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>9.989683087968253</v>
+        <v>-4.844246192655774</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.75855307964946</v>
+        <v>32.48644779914203</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.6673948851909</v>
+        <v>30.20177578350784</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.79602116790196</v>
+        <v>35.21828833204144</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.04757698318859</v>
+        <v>39.1707411071652</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.50873154336136</v>
+        <v>37.90808857444115</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.69360323454016</v>
+        <v>9.774873245614558</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.69828987229413</v>
+        <v>30.82336142973314</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.07162018483325</v>
+        <v>35.1764273357884</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>11.57032830903103</v>
+        <v>13.19998945208188</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.65323612520751</v>
+        <v>32.81801559630371</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.48329028715703</v>
+        <v>36.23458346626599</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>8.590759714780942</v>
+        <v>4.277906183045715</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.30605005311573</v>
+        <v>33.06980207375686</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.0815483051555</v>
+        <v>39.47796333078166</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>12.36053014912904</v>
+        <v>5.569343465770217</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.29390813812326</v>
+        <v>49.37029931662109</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.25637976499549</v>
+        <v>55.54210700254579</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>27.5300619596244</v>
+        <v>54.12899887752143</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.8868618671881</v>
+        <v>63.15348205455992</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.37547740770709</v>
+        <v>64.26399687557769</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>19.36629864981506</v>
+        <v>19.74900197257175</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.59231529322107</v>
+        <v>59.59108903100027</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>32.96184592997192</v>
+        <v>63.87068562962962</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>18.51723349252179</v>
+        <v>20.17497350346115</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.72805159126592</v>
+        <v>42.54340838256222</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.62322105144094</v>
+        <v>46.75382663204466</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>15.89811562294454</v>
+        <v>8.240054346190121</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.76529085582497</v>
+        <v>45.01078394146889</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.5829202747429</v>
+        <v>49.82486410572899</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>19.71601246418726</v>
+        <v>12.11267512054154</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>32.77247139249917</v>
+        <v>65.52100584241178</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.80673950872399</v>
+        <v>72.97600142389417</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>35.26779691660597</v>
+        <v>81.61991362505817</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>39.63453289123632</v>
+        <v>89.84789322324455</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>41.15083136437673</v>
+        <v>91.59819370180797</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.95007872543482</v>
+        <v>33.0947843153087</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>37.22574933252275</v>
+        <v>80.53747449494865</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.64298286846278</v>
+        <v>86.43518432468507</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.43097478020876</v>
+        <v>2.205409903876856</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>23.55033490900117</v>
+        <v>4.509388470757344</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>27.43860049239501</v>
+        <v>8.587252475934761</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8.812980677810449</v>
+        <v>-7.763545170404839</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.59106435290159</v>
+        <v>13.17300436701301</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.42634302121989</v>
+        <v>16.13739659192983</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.53816006139493</v>
+        <v>-8.679263022046669</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.52202210100843</v>
+        <v>21.32515106531092</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.54066975744518</v>
+        <v>22.29691827324088</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>27.63989483472044</v>
+        <v>23.42944482183414</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.98465062413482</v>
+        <v>26.36002275843821</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.50294574256997</v>
+        <v>30.85498338904883</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.41791596352299</v>
+        <v>5.506448082354623</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.57182668157486</v>
+        <v>21.31008989448479</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.0477463334477</v>
+        <v>23.52732623672857</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.0532977970231</v>
+        <v>0.1818550622517279</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.33822195552652</v>
+        <v>10.43188161360301</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.27749293308347</v>
+        <v>15.89404333973287</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>11.08283380544596</v>
+        <v>-6.213674571169733</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.00990925093165</v>
+        <v>12.13711695425347</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>27.90494063173094</v>
+        <v>20.33357712907586</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.88363315641619</v>
+        <v>-9.947001873460565</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.03274091743649</v>
+        <v>21.13057753281582</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.10655420504187</v>
+        <v>30.55483991154206</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.35012460360799</v>
+        <v>28.71851243691539</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>34.80378158694816</v>
+        <v>37.24949159205771</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.3498190551928</v>
+        <v>45.08501236069954</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.06533898687658</v>
+        <v>3.108805074330363</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>32.44427366092098</v>
+        <v>34.70854661477888</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.9148991753967</v>
+        <v>36.46858966705172</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>20.78605927236344</v>
+        <v>7.144399298552415</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>33.19843826572307</v>
+        <v>19.56294421332801</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.20535135825914</v>
+        <v>28.08055329780375</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>18.18463072199113</v>
+        <v>-1.353611655684674</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.26161640681372</v>
+        <v>23.60611345269122</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.20185909852871</v>
+        <v>33.0606336347041</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.02691325492727</v>
+        <v>-3.576828889124172</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>35.29892551948318</v>
+        <v>36.61126581475339</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>39.44760253385592</v>
+        <v>49.80980540003158</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>37.8789308110652</v>
+        <v>54.21258771624026</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.34225383661608</v>
+        <v>62.22738229887791</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.91725541577045</v>
+        <v>72.27648451825912</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.43967430622721</v>
+        <v>13.95457033264135</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>39.86841979263504</v>
+        <v>52.67865639427511</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>43.38966460770801</v>
+        <v>57.40511585694243</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.01182552961824</v>
+        <v>17.14684188808259</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.13903673679516</v>
+        <v>35.51917808865004</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>30.94774143703575</v>
+        <v>41.57962156434461</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.51887824876223</v>
+        <v>6.72688113422241</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.31216455777921</v>
+        <v>51.78880852149545</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.05077576470758</v>
+        <v>54.43079550380783</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.29031179170299</v>
+        <v>13.75108627500929</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.27863059045285</v>
+        <v>74.89716642002215</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.21522162709791</v>
+        <v>73.89765595053363</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.33141337958753</v>
+        <v>66.50603313742467</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.63591193274046</v>
+        <v>72.93175343977218</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>37.107692254573</v>
+        <v>71.60827828158939</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.09304310248474</v>
+        <v>34.6839969214346</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.25120448173267</v>
+        <v>67.20556402655232</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.65637154568879</v>
+        <v>75.20749227028456</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>17.45340625493506</v>
+        <v>11.76457866474858</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.74239771102229</v>
+        <v>37.46885527696629</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>33.59753639411264</v>
+        <v>41.75121081150282</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.60929837970475</v>
+        <v>-1.389563974121344</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>27.54716282254142</v>
+        <v>39.64398134117577</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.34140908129239</v>
+        <v>45.18829607548561</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>18.45449268645285</v>
+        <v>2.825519932327339</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.60460381491573</v>
+        <v>63.99500997647074</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.59181257100165</v>
+        <v>68.43271107671528</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.85665463762211</v>
+        <v>60.2824860897209</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.26662420558871</v>
+        <v>70.60078247659619</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>39.76458913104338</v>
+        <v>70.84526454890131</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.56000806282362</v>
+        <v>23.659635382308</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.938158360704</v>
+        <v>71.37905195088756</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.33665452284676</v>
+        <v>74.49831543699067</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.24349648342942</v>
+        <v>18.04973373416554</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.65704420217281</v>
+        <v>45.73852053317243</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.57877811737596</v>
+        <v>52.24647545500987</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.76633374372943</v>
+        <v>3.93639865480931</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.85192637581402</v>
+        <v>51.73591766116799</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>38.68995378100267</v>
+        <v>56.95933221958124</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.6557253359933</v>
+        <v>9.298006903870899</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.92537977883897</v>
+        <v>79.14178809428698</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.98617373296071</v>
+        <v>86.35218812310502</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>41.43914047911365</v>
+        <v>86.41990009147788</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.85858300463568</v>
+        <v>96.32332307725075</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>47.38512170383422</v>
+        <v>97.04467681654843</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.98939362112641</v>
+        <v>34.08736170114351</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>43.41538461148805</v>
+        <v>90.06699537789707</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>46.86261913965852</v>
+        <v>96.07795052202717</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.805374871263989</v>
+        <v>4.446628743400723</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>18.71601171068968</v>
+        <v>9.719190612961839</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.50612348688392</v>
+        <v>13.94884627879078</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>4.075001565020312</v>
+        <v>-4.593914649154399</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>16.62189448359932</v>
+        <v>14.30076608639662</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.34900040034185</v>
+        <v>18.06069573037452</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.759672256859407</v>
+        <v>-2.584023671454773</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.51854160185688</v>
+        <v>25.70747439415184</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.43790550216907</v>
+        <v>27.76908392629944</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.54198805770697</v>
+        <v>28.47017440535392</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.79371060198138</v>
+        <v>30.42708066282115</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.25603358586727</v>
+        <v>33.55703822182208</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.41604566215066</v>
+        <v>5.316998772879927</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.44097999598861</v>
+        <v>23.72012782917319</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.81951835918574</v>
+        <v>29.67835348184401</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.340380087098596</v>
+        <v>8.625916579356968</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>21.41227815068227</v>
+        <v>23.949168734374</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.25294562346471</v>
+        <v>29.76284685903987</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>6.273181361341127</v>
+        <v>3.302760333165494</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.96527923523958</v>
+        <v>22.85395357081917</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.75177679641777</v>
+        <v>32.21331450283192</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>10.02959808786949</v>
+        <v>3.634728496877031</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.94992779310105</v>
+        <v>36.08844151881759</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.9239069126196</v>
+        <v>46.12824406069394</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.17072973631675</v>
+        <v>40.00342249579889</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.52688943535439</v>
+        <v>47.72776388791901</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.01623203695369</v>
+        <v>52.5628654868725</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.98498352338925</v>
+        <v>10.1464524497048</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.2274001183925</v>
+        <v>43.78250749634587</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>30.60358029977897</v>
+        <v>50.44999634596753</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.27981246206052</v>
+        <v>17.90884734330733</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.47952705536467</v>
+        <v>35.99860399012441</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.38473054931862</v>
+        <v>42.87262800076381</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.57475812079211</v>
+        <v>9.735496696846567</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.41864167141047</v>
+        <v>36.74276728101351</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.24653950609759</v>
+        <v>44.93221550093229</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>17.3796133851822</v>
+        <v>12.08698703966367</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.42291605554264</v>
+        <v>53.98192979778291</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>34.46812824370143</v>
+        <v>65.65600986128275</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.90213844470154</v>
+        <v>68.31155503334172</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.26844693760791</v>
+        <v>74.7665631460937</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>38.785798749139</v>
+        <v>82.60243932483796</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.56501664165982</v>
+        <v>25.13943784006487</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>34.85722618501102</v>
+        <v>66.46944237804065</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>38.28041638877973</v>
+        <v>75.50189645477853</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>10.85068783879677</v>
+        <v>-6.226655670335319</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.91141069622562</v>
+        <v>5.126671098819756</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.705396680273</v>
+        <v>6.405909532486092</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>8.173698553208993</v>
+        <v>-21.83078106469152</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.88208485790572</v>
+        <v>9.124161784617527</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.61047346540047</v>
+        <v>10.5767547882178</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.8917777102951</v>
+        <v>-20.00017405984737</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.81021183874341</v>
+        <v>26.06110966604957</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.7332294905232</v>
+        <v>24.11882126585179</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.84395749684593</v>
+        <v>23.28291473223724</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.13701068450841</v>
+        <v>27.24732059636601</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.60025582290491</v>
+        <v>26.02144516611826</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>18.62078906524842</v>
+        <v>-5.073754516848126</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.74385030215578</v>
+        <v>21.89694906295848</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.12928626801138</v>
+        <v>24.1650228131855</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.56968578279048</v>
+        <v>18.29592324990277</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.79159311927391</v>
+        <v>38.65816395234792</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.63382052323761</v>
+        <v>40.38471213950491</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.55328912165452</v>
+        <v>4.770487492826661</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.4071218542792</v>
+        <v>35.90808284250222</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.19312828506038</v>
+        <v>41.67081463647874</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>14.34728496862583</v>
+        <v>5.46367726152674</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>27.4269803869734</v>
+        <v>54.5635738371099</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.40241655950159</v>
+        <v>59.83952413223297</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.66015593165566</v>
+        <v>57.30946672151576</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.05861383698341</v>
+        <v>65.68917550034625</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.54777011145097</v>
+        <v>65.9582081967183</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.3782101972763</v>
+        <v>22.23235652908311</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.71891074575838</v>
+        <v>65.39263527402726</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.09992971151512</v>
+        <v>66.96563551957881</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>20.46783260466809</v>
+        <v>24.24252378481658</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.81682808602091</v>
+        <v>47.92251089984252</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.72472644330116</v>
+        <v>51.0238285008305</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.81729643367853</v>
+        <v>7.523648505626241</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.82172931127844</v>
+        <v>46.94046993158106</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>34.65001570413474</v>
+        <v>51.50154091446679</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.65862719152505</v>
+        <v>9.589830809414238</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.86047874367149</v>
+        <v>69.13180803301263</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>38.90862297779827</v>
+        <v>76.06602210116041</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>37.35261498919975</v>
+        <v>81.6839247894825</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.76126481000696</v>
+        <v>89.34762995262106</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>43.27904826224812</v>
+        <v>91.1746171475544</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.91749035828608</v>
+        <v>31.13107185966909</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>39.30883130646966</v>
+        <v>83.50790745327525</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.73785223336525</v>
+        <v>86.18219996631258</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>7.387971177624127</v>
+        <v>8.306744279012676</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>19.31955236086805</v>
+        <v>11.30041218679865</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.09612427182848</v>
+        <v>14.71918823851878</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.666081260732131</v>
+        <v>-4.506046934124598</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.23831930552597</v>
+        <v>15.52253229536818</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.94888453865376</v>
+        <v>17.74960683255547</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>8.3526866209502</v>
+        <v>-2.119891483337838</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>21.13535158696707</v>
+        <v>27.55196866554395</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.03977631805514</v>
+        <v>28.42799353877926</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.15447368613073</v>
+        <v>29.02625357175849</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.41222156719731</v>
+        <v>31.59089170763896</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.8727557256097</v>
+        <v>31.17122584621482</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.02909731891282</v>
+        <v>12.5346861080228</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.05960492067908</v>
+        <v>27.67850768176827</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.43076531983424</v>
+        <v>30.1607950308837</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.732376426391493</v>
+        <v>2.873526144189853</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>21.82216982831133</v>
+        <v>13.75197982725975</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.64942314722985</v>
+        <v>18.38371787210515</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>6.668315788379214</v>
+        <v>-6.057356992012799</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>19.38227606083517</v>
+        <v>12.07590892529531</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.15272693351667</v>
+        <v>19.49919553217647</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.42616163344631</v>
+        <v>-6.607005039480654</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.36718322005728</v>
+        <v>24.67122910330993</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.32644044868401</v>
+        <v>33.39520846651344</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.58331328911153</v>
+        <v>29.06424356828289</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.94522297372302</v>
+        <v>35.08644778703699</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.43286039356148</v>
+        <v>36.87479984082448</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>17.39971616802449</v>
+        <v>5.747669094041456</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.64620280638909</v>
+        <v>34.91462863443816</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.01416368159214</v>
+        <v>37.13615061967114</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>16.87109572295753</v>
+        <v>18.41470523172997</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.09265934485777</v>
+        <v>32.75415301992759</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.98245534092226</v>
+        <v>37.9213466412332</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>14.17424824069652</v>
+        <v>4.070352541077412</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.04368982995413</v>
+        <v>30.4422336796621</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.85368157179889</v>
+        <v>36.13279344965285</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.98351540915746</v>
+        <v>7.288913581833853</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>31.05148887030727</v>
+        <v>49.26304741854914</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>35.08015968214235</v>
+        <v>58.81675755461625</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.52666729348501</v>
+        <v>62.39024814243088</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.89939208729079</v>
+        <v>67.84472728313638</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>39.41362158240933</v>
+        <v>70.31958312357379</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.18819732084486</v>
+        <v>24.36224891804055</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>35.48677721991753</v>
+        <v>62.10569315646192</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.9008588207198</v>
+        <v>65.23467860366627</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>4.133150203323851</v>
+        <v>0.9780931654305931</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>15.94277399312599</v>
+        <v>-0.05217066571192674</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.68576934426675</v>
+        <v>-1.076487916015665</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>1.355096133577128</v>
+        <v>-8.799396356673739</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.80011656525316</v>
+        <v>4.760198504800357</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.47837398743498</v>
+        <v>4.662748951669087</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>4.982937664859605</v>
+        <v>-9.754576539371769</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.63581016756331</v>
+        <v>11.17329644237616</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.50584370045678</v>
+        <v>8.378750394534521</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.6313441662253</v>
+        <v>11.999388011249</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.85242056961098</v>
+        <v>10.47383635581282</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.30141610904091</v>
+        <v>8.150032384080944</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.59202490871704</v>
+        <v>0.9996073241942867</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.52817393376582</v>
+        <v>9.888086799275058</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.86747671662856</v>
+        <v>11.1233846281318</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>6.618002445923523</v>
+        <v>-2.422692519642069</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>18.58653119593261</v>
+        <v>4.485929367700194</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.37945504157995</v>
+        <v>3.960214395085487</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.50245612218367</v>
+        <v>-8.250182346612874</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.09039669502115</v>
+        <v>4.049615006344581</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.82785814451999</v>
+        <v>8.419076347222969</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.203026205849188</v>
+        <v>-12.17294454114828</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.01495755561964</v>
+        <v>10.93379103268528</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.93902365342787</v>
+        <v>14.79340097534306</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.20568911816343</v>
+        <v>14.25779284927516</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.53072763189716</v>
+        <v>16.56537593155723</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.00631327489695</v>
+        <v>15.65314039172323</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.10745826413915</v>
+        <v>-3.429527714361299</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.25882542243869</v>
+        <v>19.34015236157835</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.59513098217826</v>
+        <v>19.61270347967458</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.82674504365129</v>
+        <v>15.02096862734656</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.92689090539737</v>
+        <v>25.18820671689359</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.78257377797929</v>
+        <v>25.45183529403879</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>11.07708589949021</v>
+        <v>2.993007192347775</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.82016201123634</v>
+        <v>23.48475033550163</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.59764197741438</v>
+        <v>26.43287168177356</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.82930835326929</v>
+        <v>2.855787459138597</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.76820438420015</v>
+        <v>36.44207916857117</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.76182446661932</v>
+        <v>41.34655338203079</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.21614455009102</v>
+        <v>48.49163489033059</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.55227038887284</v>
+        <v>50.0511926323703</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.05485278664207</v>
+        <v>50.49644204886484</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.96317782528505</v>
+        <v>16.708667425153</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>32.16710657074337</v>
+        <v>47.77609290077901</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.54963292375722</v>
+        <v>49.08898115664427</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.80104203120533</v>
+        <v>22.80924332120044</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.93452404682294</v>
+        <v>30.8951433726658</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.82902971268013</v>
+        <v>35.07989248212517</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>10.15467798763659</v>
+        <v>5.854367746890986</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.94461868269596</v>
+        <v>32.58625218670529</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.78733185376259</v>
+        <v>33.59656374716509</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>13.92285360775295</v>
+        <v>10.64425175394142</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.92320744280076</v>
+        <v>48.52832483571829</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.94763830918718</v>
+        <v>48.45953927010301</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.04171902909381</v>
+        <v>50.13290002207164</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.38810082416667</v>
+        <v>51.86073934896358</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.90458546149873</v>
+        <v>52.62457886792619</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>20.81278513211942</v>
+        <v>31.66488165486477</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>30.98432150165446</v>
+        <v>53.42564774440835</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.47180806665409</v>
+        <v>57.36708115198637</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>15.27056125505251</v>
+        <v>13.38885124541703</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.56990042107493</v>
+        <v>30.02082014622208</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.51617688813393</v>
+        <v>34.1908142469599</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>12.26889269602541</v>
+        <v>-0.9437507050023868</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.20782745030337</v>
+        <v>23.19464581594313</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.11117490215545</v>
+        <v>28.41009120544963</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.11028067934367</v>
+        <v>0.7768886648822928</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.27619485504788</v>
+        <v>40.14993251262722</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.35655049802541</v>
+        <v>47.06321908234368</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.59359006327873</v>
+        <v>44.41787120135599</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.04853458221861</v>
+        <v>51.3942520219823</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.59317784593094</v>
+        <v>54.01368860864132</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.30157837977024</v>
+        <v>18.75537783961748</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.69911392627807</v>
+        <v>55.7203668891088</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>37.1815616177408</v>
+        <v>57.99611972819098</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.06043471447588</v>
+        <v>26.32716386244108</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.48884038207817</v>
+        <v>45.28813319408333</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.50088143396163</v>
+        <v>51.45106708621044</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>19.42805510058545</v>
+        <v>9.080418826623898</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.518962033185</v>
+        <v>40.4521996627645</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.46541375302205</v>
+        <v>45.55625973278391</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.31187446563213</v>
+        <v>13.26675862659009</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.60234219083293</v>
+        <v>62.02059267355828</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>40.75551929328122</v>
+        <v>71.60322110549468</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>39.18313116635717</v>
+        <v>77.23492806289734</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>43.64698891545115</v>
+        <v>82.954145498453</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.22014455407147</v>
+        <v>87.09773025100681</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.73543420376137</v>
+        <v>35.44368128366845</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>41.18265026363153</v>
+        <v>79.07785328709157</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>44.7143586259349</v>
+        <v>84.29984691823542</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>11.62107171432372</v>
+        <v>20.74389222086982</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.60981123991531</v>
+        <v>38.90716745855217</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.3980841328526</v>
+        <v>42.65351260141371</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>8.985814815058792</v>
+        <v>8.573861991256521</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.61495627276982</v>
+        <v>45.92225963800128</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.33531941088353</v>
+        <v>48.06692886344852</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>12.69939732619724</v>
+        <v>13.73808066195183</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.53982234627634</v>
+        <v>64.6935701908382</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.45588028793928</v>
+        <v>66.20863893754101</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>27.57596087107391</v>
+        <v>64.59584671222562</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.847613661549</v>
+        <v>70.1844723963621</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>33.30753772394317</v>
+        <v>71.72490506847434</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>19.39010964137352</v>
+        <v>27.63850186929069</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.47442484859785</v>
+        <v>64.01929809287155</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.85533611832331</v>
+        <v>72.75436257205082</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.91267851031162</v>
+        <v>12.00663251950958</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.05919876224151</v>
+        <v>36.3973188727477</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.89623185131948</v>
+        <v>40.55283985851507</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>10.9365493187847</v>
+        <v>1.996783402094096</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.70733655279587</v>
+        <v>35.78235175549274</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.48548870596611</v>
+        <v>42.33758591493707</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>14.72151624485726</v>
+        <v>3.84777212543311</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.71972831786951</v>
+        <v>54.2415067864567</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.68866990746365</v>
+        <v>62.95884845158069</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.95217128573174</v>
+        <v>56.67088531593608</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.32753917472799</v>
+        <v>67.18324385326612</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.81328259994424</v>
+        <v>69.42438612593465</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>21.70955216168327</v>
+        <v>16.21020138190194</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>32.00799904911615</v>
+        <v>64.76585172322085</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.38489998799368</v>
+        <v>72.43007778539921</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>20.73181645508578</v>
+        <v>16.82202286983828</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>33.00481319936156</v>
+        <v>44.17855787066692</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.90625897557562</v>
+        <v>49.63765045029255</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>18.12136331597833</v>
+        <v>4.332755647143401</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.04187239479896</v>
+        <v>45.77565666691258</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.86139629873887</v>
+        <v>51.37078367164132</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>21.9528556110838</v>
+        <v>7.357720853006342</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>35.07261361148255</v>
+        <v>67.56838741261488</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.11295092173596</v>
+        <v>78.14651602744767</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>37.56342642622013</v>
+        <v>80.06532775935985</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>41.94877893192158</v>
+        <v>89.59459200176211</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>43.4630217482555</v>
+        <v>94.8421239232206</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.1704551560791</v>
+        <v>24.51829804336559</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>39.51806864827208</v>
+        <v>81.5788299255516</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.94205698974613</v>
+        <v>91.46719376784439</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>15.99979951338736</v>
+        <v>19.18279222641182</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.16558320646079</v>
+        <v>34.72224399459019</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.04164983247647</v>
+        <v>38.7168453800317</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>13.46286527881303</v>
+        <v>6.317107923371353</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.29356568246578</v>
+        <v>45.1509918115146</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.11678081500649</v>
+        <v>47.34067788154137</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>17.24622836210359</v>
+        <v>11.28353692362832</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>30.27648220201013</v>
+        <v>63.66757496646217</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.28137679173622</v>
+        <v>63.11417094558367</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>32.39121678957671</v>
+        <v>60.70625345354252</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.73396752341896</v>
+        <v>63.46533992834834</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>38.24902362783805</v>
+        <v>65.63756041223145</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.15527676814235</v>
+        <v>30.01170747021412</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.33743761377916</v>
+        <v>61.82398703961415</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.81148428673881</v>
+        <v>68.67043644856484</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>18.42662973271045</v>
+        <v>16.66452067410158</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.75649222008533</v>
+        <v>40.78677718145168</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.68187631967257</v>
+        <v>44.43071183478553</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>15.53275900955081</v>
+        <v>4.050133135005623</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.51060594115668</v>
+        <v>39.81076512746607</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.39180130607683</v>
+        <v>46.14105553214721</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>19.39044415238037</v>
+        <v>6.328310958369613</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>32.58433837727019</v>
+        <v>59.8317813292724</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.64275266667853</v>
+        <v>66.45247830641439</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.89718809183194</v>
+        <v>62.58592011221002</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.34817324039442</v>
+        <v>70.91982963434155</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>40.89045030070973</v>
+        <v>75.23733365990147</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.59957952850467</v>
+        <v>24.24565060339204</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.00542873092073</v>
+        <v>72.61171116388458</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.47260914059767</v>
+        <v>77.10651043965508</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.98703008706567</v>
+        <v>21.3150484924994</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.44018373404086</v>
+        <v>47.38589179394155</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.43264027248911</v>
+        <v>53.06252996798595</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>22.46110073240279</v>
+        <v>7.43268704601077</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.58412523670221</v>
+        <v>49.72519568192116</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.51004135170515</v>
+        <v>56.03323050017214</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.35749657759358</v>
+        <v>10.73250410529401</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.66998470225954</v>
+        <v>73.05172009966562</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.80260630567933</v>
+        <v>82.34692292239082</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.24409882576906</v>
+        <v>86.54881430034713</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.70357676551534</v>
+        <v>93.99258600008012</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>48.27450651633919</v>
+        <v>99.7980157404608</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>33.79447005647725</v>
+        <v>32.95119581920714</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.24706953522957</v>
+        <v>88.54299253022286</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.7643665700225</v>
+        <v>95.35013349476365</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>5.728477527202017</v>
+        <v>26.22465044508719</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>18.40791554326553</v>
+        <v>36.23823382839178</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.4380577766904</v>
+        <v>38.82975457201853</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>2.802430074228152</v>
+        <v>24.19565133703846</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.17559860397103</v>
+        <v>58.72982500978496</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>20.14799101661253</v>
+        <v>59.09124224012841</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>6.739552317015374</v>
+        <v>18.86395886455161</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>20.31922386077671</v>
+        <v>63.65453954214352</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.48499750314874</v>
+        <v>62.68118504074506</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.53730473337042</v>
+        <v>61.61554380340745</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.06727031407399</v>
+        <v>65.54443324440557</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.64278959566451</v>
+        <v>67.57186394273579</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>14.0101070048308</v>
+        <v>39.69904275291806</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.62318762133308</v>
+        <v>61.98314096348712</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.23658111476314</v>
+        <v>69.17602497267889</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>8.266021924911152</v>
+        <v>23.57404097935647</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.11947537423261</v>
+        <v>42.24257162038525</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.20078453678079</v>
+        <v>45.65894692431617</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>4.968093936550162</v>
+        <v>24.60163039716143</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>18.49864938363908</v>
+        <v>55.76488632333188</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.53131186073719</v>
+        <v>61.31576923382745</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>8.984191975851459</v>
+        <v>14.61017724442026</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.73762703736899</v>
+        <v>60.85273558169943</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.9589376552874</v>
+        <v>68.18474766461058</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.16244542829217</v>
+        <v>63.09538938242513</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.80597511482634</v>
+        <v>72.63825102932795</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.41005188675388</v>
+        <v>77.36790368243989</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.56959405222054</v>
+        <v>32.75285774305691</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>27.41725961412687</v>
+        <v>71.80616438251955</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.02423941402029</v>
+        <v>77.79756685985426</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.49316658623196</v>
+        <v>28.39729664671684</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.47430872468016</v>
+        <v>48.93081988343049</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.62681171957232</v>
+        <v>53.90231159517184</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>12.58209237226554</v>
+        <v>27.77283427309699</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.26357081463167</v>
+        <v>65.36477270520835</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.34346963186108</v>
+        <v>70.37238570774583</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>16.64398082415417</v>
+        <v>19.19928070697567</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.52004463505875</v>
+        <v>74.14761312093968</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.81987514434165</v>
+        <v>83.79332971656281</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>33.21602913085852</v>
+        <v>87.45946163389435</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>37.86950030340223</v>
+        <v>95.89552524265046</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>39.50328683164619</v>
+        <v>102.2648769808486</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>24.46347286679892</v>
+        <v>42.39799579060322</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.35953402798449</v>
+        <v>88.0005572419861</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.01905408692041</v>
+        <v>95.80545510285204</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>12.64797337400455</v>
+        <v>17.05904621607827</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.80105159508758</v>
+        <v>34.23801945341064</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.63725512098614</v>
+        <v>39.41510728872221</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.00007450352861</v>
+        <v>4.923301697623728</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.80151633993239</v>
+        <v>39.87011144193072</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.57467062520553</v>
+        <v>43.34127334802834</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.76652040344234</v>
+        <v>10.12971229716292</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.7809730653514</v>
+        <v>61.10058237628822</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>30.74758255081269</v>
+        <v>62.99697570692264</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.86637554780089</v>
+        <v>62.91956723003226</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>33.19216358976955</v>
+        <v>66.6435226328331</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.67756767548109</v>
+        <v>67.16620474510866</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.58337301430713</v>
+        <v>21.26406235852455</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.79132597849483</v>
+        <v>58.11947269851792</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.22445137450026</v>
+        <v>65.02325353989595</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.00264849717157</v>
+        <v>11.54242559212234</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.31495679023288</v>
+        <v>36.24645423486608</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.1995114799773</v>
+        <v>40.26573991611211</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.0076559116879</v>
+        <v>1.302713426532065</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.95241527932501</v>
+        <v>33.80052597213783</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.78238924300447</v>
+        <v>40.19710324938886</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>15.84652266740608</v>
+        <v>3.51135662042212</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.02001883203712</v>
+        <v>54.69620157450932</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.03912677180086</v>
+        <v>62.24086542099344</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.30259102870107</v>
+        <v>58.41663613075393</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.73350229380677</v>
+        <v>66.76892411303938</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>37.24533583812961</v>
+        <v>68.55878359619085</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.96166862045544</v>
+        <v>13.86426709301143</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.3864030892158</v>
+        <v>63.16241554768628</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.81449233757958</v>
+        <v>68.45566026785953</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>21.67860040398889</v>
+        <v>16.5889859879715</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.11545337171091</v>
+        <v>43.68502776928578</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.06639432196699</v>
+        <v>49.87521839310834</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>19.05189140733074</v>
+        <v>5.05258752101129</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>32.14413407925736</v>
+        <v>44.39262299640465</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.01724838074844</v>
+        <v>50.89020541945929</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.93335604820007</v>
+        <v>7.709481709046557</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.22641465524897</v>
+        <v>68.02748155631504</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>40.31901942297462</v>
+        <v>78.392116289979</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>38.76918116926261</v>
+        <v>83.6405290291719</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.21061087208605</v>
+        <v>91.11282456320875</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.75093639312426</v>
+        <v>95.30378694972212</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.2790813502937</v>
+        <v>23.97643268918493</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>40.75206387758542</v>
+        <v>81.16237618160257</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>44.22815578582593</v>
+        <v>89.46694255030151</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>10.95011732342627</v>
+        <v>10.59257654332889</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.74557943662494</v>
+        <v>16.54567224934125</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.51749234237093</v>
+        <v>19.62489921040948</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>8.367511454523179</v>
+        <v>-3.14137087944043</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.80541841542747</v>
+        <v>22.68862825984222</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.52766897400049</v>
+        <v>23.65328887549511</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>12.01453955986309</v>
+        <v>1.372095796072486</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.65083749656843</v>
+        <v>33.96515022251502</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.54954304928872</v>
+        <v>36.04714755856561</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.69610446703719</v>
+        <v>36.4690960684198</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.91520883204779</v>
+        <v>38.23921445840001</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.39293092875003</v>
+        <v>41.46646723141201</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.68652822578822</v>
+        <v>14.90629979029315</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.57819553135283</v>
+        <v>34.41793581986168</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.96148527269895</v>
+        <v>38.30899900702657</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>13.4562174127539</v>
+        <v>14.6065610887005</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.41463329865624</v>
+        <v>31.71538416259786</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.23853680626714</v>
+        <v>36.8841992045604</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>10.53313669571535</v>
+        <v>5.113556990680834</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.11817801041239</v>
+        <v>32.10654795252709</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.90040281901501</v>
+        <v>39.13128897942882</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>14.2516789554819</v>
+        <v>6.871582717193732</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.05082057210296</v>
+        <v>44.64421612649942</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.00556809607379</v>
+        <v>55.76431524570056</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.29156248477625</v>
+        <v>50.65532799143203</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.61646925939572</v>
+        <v>58.32759565394095</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.12207736392862</v>
+        <v>64.34324038353979</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.21868057496253</v>
+        <v>18.76947673421397</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.33134367286157</v>
+        <v>57.15064891605813</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.71125504450953</v>
+        <v>62.22553075011275</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.03919122676268</v>
+        <v>22.63870680935607</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>32.12155644764037</v>
+        <v>41.55039995836306</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.01034116513909</v>
+        <v>48.31350665315033</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>17.46997516731824</v>
+        <v>10.4205905882415</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.20108742796441</v>
+        <v>43.94391552166913</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.02634227013763</v>
+        <v>50.59015341787101</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.23065331701631</v>
+        <v>13.74776543449833</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>34.14910337468044</v>
+        <v>59.80115127423549</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.17552378351434</v>
+        <v>73.27285700218771</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.64240096009071</v>
+        <v>75.25235808940558</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.97558171228948</v>
+        <v>81.70714219044011</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.50884991662306</v>
+        <v>89.64239223451126</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.42064780578409</v>
+        <v>29.81687267413064</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>38.57997473045862</v>
+        <v>74.8366448794438</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.00857131322035</v>
+        <v>82.02679911687157</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>5.239602815539019</v>
+        <v>9.854142305582471</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.90045707539873</v>
+        <v>16.75635084180992</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.93062078051816</v>
+        <v>21.24530169832578</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>2.305594019347772</v>
+        <v>0.6276028388164292</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.65839081945054</v>
+        <v>29.36711670644659</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.63117744780697</v>
+        <v>33.0421770155419</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>6.238446813477843</v>
+        <v>0.6470508895663869</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.79852222433164</v>
+        <v>39.27754458873197</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>23.96437340371633</v>
+        <v>41.11900854070647</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.01906193290465</v>
+        <v>41.13728314982374</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.54414747594483</v>
+        <v>44.42053000009962</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.11974760985942</v>
+        <v>48.09783375439979</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.50427097375554</v>
+        <v>18.78547521695636</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.10484889134495</v>
+        <v>39.27545354118861</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>27.7175813196616</v>
+        <v>48.26285182734095</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.754249224911376</v>
+        <v>10.20359995098219</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.5890655040367</v>
+        <v>26.12956087723914</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.67081502379282</v>
+        <v>32.15726554196091</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4.448942984251566</v>
+        <v>4.226671837500916</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>17.95901907899422</v>
+        <v>30.1028421070191</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.99244933993526</v>
+        <v>39.77034134661106</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>8.460130452285632</v>
+        <v>-0.05368161025812412</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.19393127569822</v>
+        <v>40.45576438528612</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.41572607095772</v>
+        <v>51.33438218740822</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>24.62098815235611</v>
+        <v>46.07374709043292</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.25948205819456</v>
+        <v>55.15952273236259</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>30.86386005810994</v>
+        <v>61.88838656216573</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>16.04039082932336</v>
+        <v>15.06394506112004</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.87552446164435</v>
+        <v>52.46224463419496</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.48213571821993</v>
+        <v>61.04304156301306</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>14.99927172953682</v>
+        <v>13.15985771141884</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.96229622139786</v>
+        <v>30.89149371816426</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.11502552042869</v>
+        <v>38.42619607116295</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>12.0804472819535</v>
+        <v>5.103835208411667</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.74208088643349</v>
+        <v>37.39498863710976</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.82253588348359</v>
+        <v>46.49072663465701</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.137809812396</v>
+        <v>2.29936551186394</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.99478301198887</v>
+        <v>51.41302217042094</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>34.2948407124609</v>
+        <v>64.59711314227438</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.69280872637403</v>
+        <v>68.10738182380537</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.34132756472842</v>
+        <v>75.88745316542561</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>38.97523709452351</v>
+        <v>84.31116701912741</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.95238614232744</v>
+        <v>22.47279843497212</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>34.8360505554501</v>
+        <v>66.15528755878394</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>38.49506905422624</v>
+        <v>76.69199716990234</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>16.81280511388854</v>
+        <v>21.96760411873815</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.78382050300991</v>
+        <v>34.59688990978994</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.57309306710455</v>
+        <v>38.04719245258822</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.35456556341112</v>
+        <v>7.420149374475173</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>26.98420634650645</v>
+        <v>48.60095632763607</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.71478197982911</v>
+        <v>47.57779329071714</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>18.08402584880107</v>
+        <v>13.73654687354797</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.90795783963761</v>
+        <v>66.78219370715856</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>34.82484749571375</v>
+        <v>64.80371010432098</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>32.98065954948375</v>
+        <v>61.47970941175673</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>37.2497610244784</v>
+        <v>65.77617263412172</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>38.72782351982479</v>
+        <v>64.7701967806622</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>24.85134207230593</v>
+        <v>38.77543020950226</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.8822222071155</v>
+        <v>62.5725176970803</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>38.28493935237579</v>
+        <v>69.11610146411756</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>19.17418353943998</v>
+        <v>19.81084603934146</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.30485879376225</v>
+        <v>40.30757537826624</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.1433559898456</v>
+        <v>43.23185425616519</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>16.36721188361566</v>
+        <v>5.118378026788221</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.13942766566072</v>
+        <v>42.13110227951451</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>32.92780419943853</v>
+        <v>45.17523866866601</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>20.16813658261048</v>
+        <v>8.183017584224345</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>33.15164165318448</v>
+        <v>62.18118949263551</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>37.12181917562796</v>
+        <v>66.85190939850021</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>35.42122384875938</v>
+        <v>61.13370805216003</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.7956168933109</v>
+        <v>68.76224708866538</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>41.3005612394206</v>
+        <v>69.72975907751577</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.23130812469146</v>
+        <v>30.4444396069711</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.48185417085612</v>
+        <v>70.27951306474999</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.87839669782429</v>
+        <v>73.15399000522301</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.68220837488791</v>
+        <v>22.5321606591947</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.93777632392393</v>
+        <v>45.02721904328659</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.84093480161118</v>
+        <v>49.76748481807748</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.23450364785829</v>
+        <v>6.526945561542064</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>36.15366824981683</v>
+        <v>49.84224862424252</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>39.98412284201072</v>
+        <v>52.88255419227583</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>27.07610774858921</v>
+        <v>10.80454590489673</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>40.17969507863362</v>
+        <v>73.39477562368417</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>44.22153594168304</v>
+        <v>80.82519722077079</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>42.70859192977426</v>
+        <v>83.83933663882006</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>47.09198087550996</v>
+        <v>91.22130011352026</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>48.62521212088005</v>
+        <v>93.02508116847595</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.3690477500908</v>
+        <v>38.10649556988822</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>44.66661335299425</v>
+        <v>84.51791931380303</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>48.1113772005012</v>
+        <v>90.25925977125833</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>13.32804924961433</v>
+        <v>18.12310317053318</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.48098643080858</v>
+        <v>35.03395544568541</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.31310383218626</v>
+        <v>39.38802871344301</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>10.71443335288297</v>
+        <v>5.406519780258193</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.51763492171456</v>
+        <v>41.86120677630136</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.28868949275161</v>
+        <v>44.15805946411122</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>14.48069763323315</v>
+        <v>10.32747534569243</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>27.49447830697141</v>
+        <v>60.52990898005017</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>31.45719477558202</v>
+        <v>62.00852727226687</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.58560218124915</v>
+        <v>62.96464356339966</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.910969614522</v>
+        <v>68.04704533742289</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>35.39922867030791</v>
+        <v>68.40226318903585</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>21.30789929874342</v>
+        <v>21.78897066025142</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.51197125514034</v>
+        <v>59.02291466059297</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.94330147222097</v>
+        <v>63.89356299912761</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>15.71681085625914</v>
+        <v>13.19270638473087</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.02896218608255</v>
+        <v>37.7952541304828</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.91014430813355</v>
+        <v>41.65377367962547</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>12.7560438660722</v>
+        <v>2.285131198751557</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.70239572311653</v>
+        <v>35.97597074194873</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.53078753592499</v>
+        <v>41.89841580226015</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>16.59492454621505</v>
+        <v>4.396757059317096</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.7677173446109</v>
+        <v>55.08604541991481</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>33.78364893641424</v>
+        <v>63.06916137932755</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>32.05628500966126</v>
+        <v>60.19227196994446</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.48687532253933</v>
+        <v>69.54679042409511</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>38.00195229816693</v>
+        <v>71.2914089595774</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>23.7203992303463</v>
+        <v>15.55279230287964</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.14182738830678</v>
+        <v>66.09219077859082</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>37.56831105552399</v>
+        <v>69.93501468102714</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>22.3116624787373</v>
+        <v>16.20083167107335</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.74786060215523</v>
+        <v>43.05492030566795</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.69554710992847</v>
+        <v>49.08354337676566</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>19.71676565689184</v>
+        <v>3.591525759071928</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.8096732494387</v>
+        <v>43.85731091954499</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.68165380247474</v>
+        <v>50.00719955253653</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>23.59725554656281</v>
+        <v>6.05476281763616</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.88910255315118</v>
+        <v>65.51198849470107</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>40.97864596788277</v>
+        <v>76.2375112483803</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>39.4371252156659</v>
+        <v>81.65636605746109</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.87808154096506</v>
+        <v>89.81925307796119</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>45.42144523745658</v>
+        <v>94.1665073776136</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.95233729701873</v>
+        <v>22.12295607912846</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>41.42111181457038</v>
+        <v>79.74495433475001</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.89613370446104</v>
+        <v>86.66676310776249</v>
       </c>
     </row>
   </sheetData>
